--- a/Waxing_Ver_02_Documents/02_Specification/03_DataBase/Board_Picture.xlsx
+++ b/Waxing_Ver_02_Documents/02_Specification/03_DataBase/Board_Picture.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="14955" windowHeight="7560"/>
   </bookViews>
   <sheets>
-    <sheet name="TASKS" sheetId="1" r:id="rId1"/>
+    <sheet name="Database_Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">TASKS!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Database_Sheet!#REF!</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -530,12 +530,45 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -545,8 +578,20 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -554,52 +599,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -874,7 +874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -888,7 +888,9 @@
   </sheetPr>
   <dimension ref="B1:AO13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -908,39 +910,39 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
       <c r="S2" s="22"/>
       <c r="T2" s="14"/>
-      <c r="U2" s="38" t="s">
+      <c r="U2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
       <c r="AH2" s="14"/>
       <c r="AI2" s="14"/>
       <c r="AJ2" s="14"/>
@@ -950,39 +952,39 @@
       <c r="AN2" s="20"/>
     </row>
     <row r="3" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
       <c r="S3" s="23"/>
       <c r="T3" s="9"/>
-      <c r="U3" s="39" t="s">
+      <c r="U3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
       <c r="AH3" s="9"/>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9"/>
@@ -991,37 +993,37 @@
       <c r="AM3" s="9"/>
     </row>
     <row r="4" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
       <c r="AH4" s="14"/>
       <c r="AI4" s="14"/>
       <c r="AJ4" s="14"/>
@@ -1031,37 +1033,37 @@
       <c r="AN4" s="20"/>
     </row>
     <row r="5" spans="2:41" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
       <c r="AH5" s="21"/>
       <c r="AI5" s="21"/>
       <c r="AJ5" s="21"/>
@@ -1086,22 +1088,22 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
@@ -1129,59 +1131,59 @@
       <c r="AO7" s="15"/>
     </row>
     <row r="8" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="42" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="40" t="s">
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40" t="s">
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40" t="s">
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40" t="s">
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40" t="s">
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40" t="s">
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="AH8" s="40"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="41"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="35"/>
       <c r="AK8" s="16"/>
       <c r="AL8" s="17"/>
       <c r="AM8" s="17"/>
@@ -1189,57 +1191,57 @@
       <c r="AO8" s="17"/>
     </row>
     <row r="9" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="26">
+      <c r="B9" s="37">
         <v>1</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28" t="s">
+      <c r="C9" s="38"/>
+      <c r="D9" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="29" t="s">
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="24" t="s">
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24" t="s">
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="43" t="s">
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="V9" s="43"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24" t="s">
+      <c r="V9" s="47"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24" t="s">
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="25"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="29"/>
       <c r="AK9" s="18"/>
       <c r="AL9" s="19"/>
       <c r="AM9" s="19"/>
@@ -1247,55 +1249,55 @@
       <c r="AO9" s="19"/>
     </row>
     <row r="10" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="26">
+      <c r="B10" s="37">
         <v>2</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="38">
         <v>2</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29" t="s">
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="24" t="s">
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24">
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28">
         <v>30</v>
       </c>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24" t="s">
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="25"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="28"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="29"/>
       <c r="AK10" s="18"/>
       <c r="AL10" s="19"/>
       <c r="AM10" s="19"/>
@@ -1303,55 +1305,55 @@
       <c r="AO10" s="19"/>
     </row>
     <row r="11" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="26">
+      <c r="B11" s="37">
         <v>3</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="38">
         <v>3</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29" t="s">
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="24" t="s">
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24">
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28">
         <v>30</v>
       </c>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24" t="s">
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="24"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="24"/>
-      <c r="AI11" s="24"/>
-      <c r="AJ11" s="25"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="29"/>
       <c r="AK11" s="18"/>
       <c r="AL11" s="19"/>
       <c r="AM11" s="19"/>
@@ -1359,53 +1361,53 @@
       <c r="AO11" s="19"/>
     </row>
     <row r="12" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26">
+      <c r="B12" s="37">
         <v>4</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="29" t="s">
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="24" t="s">
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24">
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28">
         <v>30</v>
       </c>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24" t="s">
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="25"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="29"/>
       <c r="AK12" s="18"/>
       <c r="AL12" s="19"/>
       <c r="AM12" s="19"/>
@@ -1413,55 +1415,55 @@
       <c r="AO12" s="19"/>
     </row>
     <row r="13" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="30">
+      <c r="B13" s="45">
         <v>8</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="45" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46" t="s">
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="44" t="s">
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44">
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26">
         <v>30</v>
       </c>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44" t="s">
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="44" t="s">
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AH13" s="44"/>
-      <c r="AI13" s="44"/>
-      <c r="AJ13" s="47"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="27"/>
       <c r="AK13" s="18"/>
       <c r="AL13" s="19"/>
       <c r="AM13" s="19"/>
@@ -1470,22 +1472,33 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="AB13:AF13"/>
-    <mergeCell ref="AG13:AJ13"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="AB11:AF11"/>
-    <mergeCell ref="AG11:AJ11"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="U5:AG5"/>
+    <mergeCell ref="E5:R5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="AB12:AF12"/>
+    <mergeCell ref="AG12:AJ12"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="AG9:AJ9"/>
     <mergeCell ref="AB10:AF10"/>
     <mergeCell ref="AG10:AJ10"/>
     <mergeCell ref="X9:AA9"/>
@@ -1502,37 +1515,26 @@
     <mergeCell ref="AB8:AF8"/>
     <mergeCell ref="AG8:AJ8"/>
     <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:AA8"/>
-    <mergeCell ref="U5:AG5"/>
-    <mergeCell ref="E5:R5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="AB12:AF12"/>
-    <mergeCell ref="AG12:AJ12"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="AG9:AJ9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="X10:AA10"/>
     <mergeCell ref="I10:N10"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="R10:T10"/>
     <mergeCell ref="U10:W10"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="AG13:AJ13"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="AB11:AF11"/>
+    <mergeCell ref="AG11:AJ11"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:W13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
